--- a/ENR swizzle/VEE Calibration Files/ENR_Cal_Files/NC345C_8371_ENRtable.xlsx
+++ b/ENR swizzle/VEE Calibration Files/ENR_Cal_Files/NC345C_8371_ENRtable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapplen\Documents\GitHub\sandbox\ENR swizzle\VEE Calibration Files\ENR_Cal_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EE04E-C50D-4D90-A38B-84609ECAF75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B16873-92FE-4937-BF05-BDD25E4DA9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35130" yWindow="825" windowWidth="15750" windowHeight="14295" xr2:uid="{4CE3FC2C-FBFC-4B3E-8A80-44CB5BF494CC}"/>
+    <workbookView xWindow="6780" yWindow="1080" windowWidth="19305" windowHeight="14295" xr2:uid="{4CE3FC2C-FBFC-4B3E-8A80-44CB5BF494CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   <definedNames>
     <definedName name="CalDueDate">Sheet1!$A$2</definedName>
     <definedName name="CalID">Sheet1!$A$3</definedName>
-    <definedName name="ENR">Sheet1!$B$9</definedName>
+    <definedName name="ENR">Sheet1!$B$10</definedName>
     <definedName name="FileName">Sheet1!$A$1</definedName>
-    <definedName name="GHz">Sheet1!$A$9</definedName>
+    <definedName name="GHz">Sheet1!$A$10</definedName>
     <definedName name="ModelNum">Sheet1!$A$4</definedName>
     <definedName name="SerialNum">Sheet1!$A$5</definedName>
     <definedName name="Technician">Sheet1!$A$6</definedName>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
